--- a/Bases/3.8.xlsx
+++ b/Bases/3.8.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26306"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/rrcastillo_ine_gob_gt/Documents/GitHub/Mujeres08marzo2023/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D2F04E46CFB4ACB3E2031CDD2FB74683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D1A02A-F671-4384-96DD-1B4424629F25}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D2F04E46CFB4ACB3E2031CDD2FB74683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3CDBC97-94F7-48D6-B0CF-8C28ABE2C089}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +60,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +100,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,20 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -413,6 +427,7 @@
       <c r="E2" s="2">
         <v>15.10291</v>
       </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
